--- a/GATEWAY/A1#111DEDALUS0000/Dedalus/GALILEO/1.5.7/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/Dedalus/GALILEO/1.5.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\it-fse-accreditamento\GATEWAY\A1#111DEDALUS0000\Dedalus\GALILEO\1.5.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1E5F57-8D07-474F-A9A9-40E19DE7FAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D531326-F40C-47E3-8549-D7588449C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="133">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -332,14 +332,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
   </si>
   <si>
@@ -558,15 +550,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.4.4.d3cefca7b8c31f34b57b5068148ef61f7faa30598f4e244b634c5793bd3fc093.5bf19a870f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T16:09:41Z</t>
-  </si>
-  <si>
-    <t>85ccbce4932c2468</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.298649e4c0a633738da4df926fbc58549dac4c3f2b9c548795ba86719a1b64bd.e06df6eb32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2023-02-22T17:03:45Z</t>
@@ -1464,10 +1447,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1524,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3" s="42"/>
       <c r="F3" s="19"/>
@@ -1564,7 +1547,7 @@
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
       <c r="C4" s="50" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="22"/>
@@ -1588,7 +1571,7 @@
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D5" s="42"/>
       <c r="F5" s="19"/>
@@ -1699,16 +1682,16 @@
         <v>14</v>
       </c>
       <c r="L9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>86</v>
-      </c>
       <c r="N9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="P9" s="26" t="s">
         <v>11</v>
@@ -1723,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1746,13 +1729,13 @@
         <v>44978</v>
       </c>
       <c r="G10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>32</v>
@@ -1767,7 +1750,7 @@
       <c r="R10" s="36"/>
       <c r="S10" s="34"/>
       <c r="T10" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1790,13 +1773,13 @@
         <v>44978</v>
       </c>
       <c r="G11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>91</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>32</v>
@@ -1811,7 +1794,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="34"/>
       <c r="T11" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1834,13 +1817,13 @@
         <v>44978</v>
       </c>
       <c r="G12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>32</v>
@@ -1855,7 +1838,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="34"/>
       <c r="T12" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1878,13 +1861,13 @@
         <v>44980</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>32</v>
@@ -1899,7 +1882,7 @@
       <c r="R13" s="36"/>
       <c r="S13" s="34"/>
       <c r="T13" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1922,36 +1905,36 @@
         <v>44978</v>
       </c>
       <c r="G14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="33"/>
       <c r="R14" s="36"/>
       <c r="S14" s="34"/>
       <c r="T14" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1974,36 +1957,36 @@
         <v>44978</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="33"/>
       <c r="R15" s="36"/>
       <c r="S15" s="34"/>
       <c r="T15" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2026,7 +2009,7 @@
         <v>44978</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
@@ -2035,17 +2018,17 @@
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="33"/>
       <c r="R16" s="36" t="s">
@@ -2053,7 +2036,7 @@
       </c>
       <c r="S16" s="34"/>
       <c r="T16" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,17 +2055,15 @@
       <c r="E17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="31">
-        <v>44978</v>
-      </c>
+      <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -2093,7 +2074,7 @@
       <c r="R17" s="36"/>
       <c r="S17" s="34"/>
       <c r="T17" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2116,36 +2097,36 @@
         <v>44978</v>
       </c>
       <c r="G18" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="33"/>
       <c r="R18" s="36"/>
       <c r="S18" s="34"/>
       <c r="T18" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2168,36 +2149,36 @@
         <v>44979</v>
       </c>
       <c r="G19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>113</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="33"/>
       <c r="R19" s="36"/>
       <c r="S19" s="34"/>
       <c r="T19" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2220,36 +2201,36 @@
         <v>44979</v>
       </c>
       <c r="G20" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>114</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>116</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N20" s="33"/>
       <c r="O20" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="36"/>
       <c r="S20" s="34"/>
       <c r="T20" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2272,36 +2253,36 @@
         <v>44979</v>
       </c>
       <c r="G21" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>117</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N21" s="33"/>
       <c r="O21" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="33"/>
       <c r="R21" s="36"/>
       <c r="S21" s="34"/>
       <c r="T21" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2324,89 +2305,59 @@
         <v>44979</v>
       </c>
       <c r="G22" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="33"/>
       <c r="R22" s="36"/>
       <c r="S22" s="34"/>
       <c r="T22" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
-        <v>69</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="31">
-        <v>44979</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>32</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>80</v>
-      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="33"/>
-      <c r="O23" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>100</v>
-      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="36"/>
       <c r="S23" s="34"/>
-      <c r="T23" s="37" t="s">
-        <v>82</v>
-      </c>
+      <c r="T23" s="37"/>
     </row>
     <row r="24" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28">
@@ -2419,45 +2370,45 @@
         <v>19</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="31">
         <v>44979</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="33"/>
       <c r="R24" s="36"/>
       <c r="S24" s="34"/>
       <c r="T24" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2471,22 +2422,20 @@
         <v>19</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="31">
-        <v>44978</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F25" s="31"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -2497,7 +2446,7 @@
       <c r="R25" s="36"/>
       <c r="S25" s="34"/>
       <c r="T25" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2511,22 +2460,20 @@
         <v>19</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="31">
-        <v>44978</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F26" s="31"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -2537,7 +2484,7 @@
       <c r="R26" s="36"/>
       <c r="S26" s="34"/>
       <c r="T26" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2551,45 +2498,45 @@
         <v>19</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="31">
         <v>44979</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>32</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
         <v>32</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="33"/>
       <c r="R27" s="36"/>
       <c r="S27" s="34"/>
       <c r="T27" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="120" x14ac:dyDescent="0.25">
@@ -2603,22 +2550,20 @@
         <v>19</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="31">
-        <v>44978</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F28" s="31"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
@@ -2629,7 +2574,7 @@
       <c r="R28" s="36"/>
       <c r="S28" s="34"/>
       <c r="T28" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -17064,10 +17009,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17075,13 +17020,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17089,13 +17034,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17103,13 +17048,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17117,13 +17062,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17131,13 +17076,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17145,13 +17090,13 @@
         <v>31</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18174,7 +18119,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>32</v>
@@ -18182,10 +18127,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19199,12 +19144,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19439,20 +19386,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19477,18 +19431,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111DEDALUS0000/Dedalus/GALILEO/1.5.7/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/Dedalus/GALILEO/1.5.7/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmilani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmilani\Desktop\RSA_Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A37D0B3-B690-4841-8234-FF9C794F4259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0796B549-7C55-463D-8638-61EC3882B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="255" windowWidth="26190" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="265">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -905,15 +905,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.4.4.4e71bac6dccdc46a13c3a9cbfe0b0f8a5e2069fe86e680d846f7ff6ae5ad391f.b77882cdca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-20T16:56:23Z</t>
-  </si>
-  <si>
-    <t>ed0282cc46bbefbe</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.6f4d7a951125b34f94459e8de4bba1fd6ea04003e7c6bd74b9f4cf668154a97c.d753ab2ec7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <r>
@@ -959,12 +950,6 @@
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
     </r>
-  </si>
-  <si>
-    <t>2023-02-21T16:17:08Z</t>
-  </si>
-  <si>
-    <t>d8e5ac74c1fb2d13</t>
   </si>
   <si>
     <r>
@@ -1013,101 +998,113 @@
     </r>
   </si>
   <si>
-    <t>2023-02-21T16:33:19Z</t>
-  </si>
-  <si>
-    <t>02bbd5bf89d95c7c</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>2023-02-21T16:35:23Z</t>
-  </si>
-  <si>
     <t>Controllo applicativo</t>
   </si>
   <si>
-    <t>2023-02-21T17:29:39Z</t>
-  </si>
-  <si>
-    <t>c88e7ec9e6c3f768</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.0a57b6f5bbc4cbd3cbd4148928aa9ab1b2cdf3f773a2b7017f8bd6a09abf712d.81f69c3d66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T12:30:46Z</t>
-  </si>
-  <si>
-    <t>d7a5a09e76e6c8b0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.9df8bc731d4c9b44316a032c0ed2fa22f9f39cc1e34f49863939f65b22795c83.5cf04311d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T15:21:10Z</t>
-  </si>
-  <si>
-    <t>61c65bf780a3e955</t>
-  </si>
-  <si>
-    <t>workflowInstanceId": "2.16.840.1.113883.2.9.2.80.4.4.9e61f270f595a44724b05c9a0d541ab5d57282e8401ad3ba942ba2b15f24c513.12346a6a9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T15:39:14Z</t>
-  </si>
-  <si>
-    <t>20b2cc9a4d2dc2f4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.f51ea74886aacf03add324977bb56a10dcc5f739604e506448d27096c431b8e5.f4c1d2b5f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T15:52:27Z</t>
-  </si>
-  <si>
-    <t>5905ecd60cc74d74</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.d3cefca7b8c31f34b57b5068148ef61f7faa30598f4e244b634c5793bd3fc093.5bf19a870f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T16:09:41Z</t>
-  </si>
-  <si>
-    <t>85ccbce4932c2468</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.298649e4c0a633738da4df926fbc58549dac4c3f2b9c548795ba86719a1b64bd.e06df6eb32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-22T17:03:45Z</t>
-  </si>
-  <si>
-    <t>a9a64f611d9b4b9a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.eaea4ee271030b96d91597e44a9fb8cc98c0318496cf455b42ef1abe6926c034.16a185f534^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo non gestisce la parte codificata dell'anamnesi</t>
   </si>
   <si>
     <t>L'applicativo non gestisce la rappresentazione strutturata delle informazioni riportate nel blocco narrativo</t>
   </si>
   <si>
-    <t>2023-02-22T17:25:10Z</t>
-  </si>
-  <si>
-    <t>b67cd1db412b6880</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.4.4.74d49dca23c59ea8b1d41d2d538d05f3f30cd4d666cf9caa9b5e2596db7d10aa.82609e4892^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il test riguarda un caso sovrapponibile al CT1, corrispondente al set minimo di informazioni presenti nel CDA e richieste da HL7 Italia</t>
+  </si>
+  <si>
+    <t>2024-03-20T16:16:36Z</t>
+  </si>
+  <si>
+    <t>b68c011450381482</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.6f4d7a951125b34f94459e8de4bba1fd6ea04003e7c6bd74b9f4cf668154a97c.c0164d4f68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T16:44:38Z</t>
+  </si>
+  <si>
+    <t>258dd408af2d7941</t>
+  </si>
+  <si>
+    <t>2024-03-20T16:50:31Z</t>
+  </si>
+  <si>
+    <t>f60bd7beeccf75a2</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:02:02Z</t>
+  </si>
+  <si>
+    <t>e4b7d25b3f7691c5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.0a57b6f5bbc4cbd3cbd4148928aa9ab1b2cdf3f773a2b7017f8bd6a09abf712d.12c84dc3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:05:40Z</t>
+  </si>
+  <si>
+    <t>1477213448385e1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.9df8bc731d4c9b44316a032c0ed2fa22f9f39cc1e34f49863939f65b22795c83.b959903ad3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:07:45Z</t>
+  </si>
+  <si>
+    <t>3c3c6b24ec3e0600</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.9e61f270f595a44724b05c9a0d541ab5d57282e8401ad3ba942ba2b15f24c513.58896de996^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:09:17Z</t>
+  </si>
+  <si>
+    <t>1650554e619c3658</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.f51ea74886aacf03add324977bb56a10dcc5f739604e506448d27096c431b8e5.03508b3334^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:10:29Z</t>
+  </si>
+  <si>
+    <t>6532b85f86ce76dd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.d3cefca7b8c31f34b57b5068148ef61f7faa30598f4e244b634c5793bd3fc093.468c025205^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:11:47Z</t>
+  </si>
+  <si>
+    <t>f7a0599495c74ed8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.298649e4c0a633738da4df926fbc58549dac4c3f2b9c548795ba86719a1b64bd.a303edd22a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:13:23Z</t>
+  </si>
+  <si>
+    <t>47031a051e567bc0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.eaea4ee271030b96d91597e44a9fb8cc98c0318496cf455b42ef1abe6926c034.8e4e9cac83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-20T17:14:40Z</t>
+  </si>
+  <si>
+    <t>3ce8208db586e93c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.4.4.74d49dca23c59ea8b1d41d2d538d05f3f30cd4d666cf9caa9b5e2596db7d10aa.cb31bc7a66^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1486,35 +1483,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1552,6 +1520,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1849,10 +1850,10 @@
   <dimension ref="A1:T673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1898,14 +1899,14 @@
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="40"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1923,14 +1924,14 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1948,12 +1949,12 @@
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1972,12 +1973,12 @@
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1995,8 +1996,8 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2114,212 +2115,212 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="210.75" thickBot="1">
-      <c r="A10" s="40">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="43">
-        <v>45005</v>
-      </c>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="210.75" thickBot="1">
+      <c r="A11" s="26">
+        <v>7</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="210.75" thickBot="1">
+      <c r="A12" s="26">
+        <v>8</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="210.75" thickBot="1">
+      <c r="A13" s="26">
+        <v>9</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A14" s="26">
+        <v>29</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="J10" s="39" t="s">
+      <c r="F14" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="210.75" thickBot="1">
-      <c r="A11" s="40">
-        <v>7</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="39" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="210.75" thickBot="1">
-      <c r="A12" s="40">
-        <v>8</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="39" t="s">
+      <c r="M14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="210.75" thickBot="1">
-      <c r="A13" s="40">
-        <v>9</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A14" s="40">
-        <v>29</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="43">
-        <v>44978</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="39" t="s">
+      <c r="N14" s="25"/>
+      <c r="O14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47" t="s">
+      <c r="Q14" s="25"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2365,7 +2366,7 @@
       <c r="O15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q15" s="17"/>
@@ -2375,55 +2376,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="165.75" thickBot="1">
-      <c r="A16" s="40">
+    <row r="16" spans="1:20" ht="165.75" customHeight="1" thickBot="1">
+      <c r="A16" s="26">
         <v>37</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="43">
-        <v>44978</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="I16" s="44" t="s">
+      <c r="E16" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47" t="s">
+      <c r="Q16" s="25"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2469,7 +2470,7 @@
       <c r="O17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q17" s="17"/>
@@ -2480,52 +2481,50 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="60.75" thickBot="1">
-      <c r="A18" s="40">
+      <c r="A18" s="26">
         <v>45</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18" s="43">
-        <v>44978</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="39" t="s">
+      <c r="E18" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39" t="s">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39" t="s">
+      <c r="N18" s="25"/>
+      <c r="O18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="45" t="s">
+      <c r="Q18" s="25"/>
+      <c r="R18" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47" t="s">
+      <c r="S18" s="32"/>
+      <c r="T18" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2565,7 +2564,7 @@
       <c r="O19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="P19" s="25" t="s">
         <v>189</v>
       </c>
       <c r="Q19" s="17"/>
@@ -2578,570 +2577,570 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A20" s="40">
+      <c r="A20" s="26">
         <v>63</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="39" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47" t="s">
+      <c r="K20" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A21" s="40">
+      <c r="A21" s="26">
         <v>64</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="43">
-        <v>44978</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="I21" s="44" t="s">
+      <c r="F21" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="H21" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39" t="s">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39" t="s">
+      <c r="N21" s="25"/>
+      <c r="O21" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="P21" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="47" t="s">
+      <c r="Q21" s="25"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A22" s="40">
+      <c r="A22" s="26">
         <v>65</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" s="44" t="s">
+      <c r="F22" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="H22" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39" t="s">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39" t="s">
+      <c r="N22" s="25"/>
+      <c r="O22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="47" t="s">
+      <c r="Q22" s="25"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A23" s="40">
+      <c r="A23" s="26">
         <v>66</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I23" s="44" t="s">
+      <c r="F23" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="H23" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39" t="s">
+      <c r="N23" s="25"/>
+      <c r="O23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47" t="s">
+      <c r="Q23" s="25"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A24" s="40">
+      <c r="A24" s="26">
         <v>67</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="I24" s="44" t="s">
+      <c r="F24" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="H24" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39" t="s">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47" t="s">
+      <c r="Q24" s="25"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A25" s="40">
+      <c r="A25" s="26">
         <v>68</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="I25" s="44" t="s">
+      <c r="F25" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="H25" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39" t="s">
+      <c r="N25" s="25"/>
+      <c r="O25" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="47" t="s">
+      <c r="Q25" s="25"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A26" s="40">
+      <c r="A26" s="26">
         <v>69</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="I26" s="44" t="s">
+      <c r="F26" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="H26" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39" t="s">
+      <c r="K26" s="25"/>
+      <c r="L26" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39" t="s">
+      <c r="N26" s="25"/>
+      <c r="O26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="47" t="s">
+      <c r="Q26" s="25"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A27" s="40">
+      <c r="A27" s="26">
         <v>70</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="I27" s="44" t="s">
+      <c r="F27" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="H27" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39" t="s">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39" t="s">
+      <c r="N27" s="25"/>
+      <c r="O27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="P27" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47" t="s">
+      <c r="Q27" s="25"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A28" s="40">
+      <c r="A28" s="26">
         <v>71</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="39" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="47" t="s">
+      <c r="K28" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A29" s="40">
+      <c r="A29" s="26">
         <v>72</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="39" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="47" t="s">
+      <c r="K29" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A30" s="40">
+      <c r="A30" s="26">
         <v>73</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="43">
-        <v>44979</v>
-      </c>
-      <c r="G30" s="44" t="s">
+      <c r="F30" s="29">
+        <v>45371</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39" t="s">
+      <c r="N30" s="25"/>
+      <c r="O30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="P30" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="47" t="s">
+      <c r="Q30" s="25"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="180.75" thickBot="1">
-      <c r="A31" s="40">
+      <c r="A31" s="26">
         <v>74</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="39" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="47" t="s">
+      <c r="K31" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3168,7 +3167,7 @@
       <c r="J32" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="25" t="s">
         <v>190</v>
       </c>
       <c r="L32" s="17"/>
@@ -3206,7 +3205,7 @@
       <c r="J33" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="25" t="s">
         <v>190</v>
       </c>
       <c r="L33" s="17"/>
@@ -3244,7 +3243,7 @@
       <c r="J34" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="25" t="s">
         <v>190</v>
       </c>
       <c r="L34" s="17"/>
@@ -3282,7 +3281,7 @@
       <c r="J35" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="25" t="s">
         <v>190</v>
       </c>
       <c r="L35" s="17"/>
@@ -3339,7 +3338,7 @@
       <c r="O36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="P36" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q36" s="17"/>
@@ -3391,7 +3390,7 @@
       <c r="O37" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="P37" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q37" s="17"/>
@@ -3443,7 +3442,7 @@
       <c r="O38" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P38" s="39" t="s">
+      <c r="P38" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q38" s="17"/>
@@ -3495,7 +3494,7 @@
       <c r="O39" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="P39" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q39" s="17"/>
@@ -3547,7 +3546,7 @@
       <c r="O40" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q40" s="17"/>
@@ -3599,7 +3598,7 @@
       <c r="O41" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q41" s="17"/>
@@ -3765,7 +3764,7 @@
       <c r="O45" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="P45" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q45" s="17"/>
@@ -3817,7 +3816,7 @@
       <c r="O46" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q46" s="17"/>
@@ -3869,7 +3868,7 @@
       <c r="O47" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P47" s="39" t="s">
+      <c r="P47" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q47" s="17"/>
@@ -3921,7 +3920,7 @@
       <c r="O48" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P48" s="39" t="s">
+      <c r="P48" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q48" s="17"/>
@@ -4163,7 +4162,7 @@
       <c r="O54" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="P54" s="39" t="s">
+      <c r="P54" s="25" t="s">
         <v>188</v>
       </c>
       <c r="Q54" s="17"/>
@@ -4196,8 +4195,8 @@
       <c r="J55" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K55" s="48" t="s">
-        <v>265</v>
+      <c r="K55" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
